--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658418.1611688662</v>
+        <v>655855.2239742916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11729183.80509164</v>
+        <v>11729183.80509163</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.2227637837967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>385.219981083777</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.80500820627353</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>289.7790799468468</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>224.4721802980703</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>116.3522342392099</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.25086600925697</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247044</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>3.059824669811191</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>361.4613773061623</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>129.9386783026243</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>217.1978438865523</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833894</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.1259105613743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.3725990111917</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223809</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465735</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.5758943588665</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456734</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1444095748049</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272928</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.08368458989422</v>
+        <v>102.15578456998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>167.363726718209</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>36.86080948088161</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>127.5379405516747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>171.1529885179052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.4636264596503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>1179.250440354288</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>810.2879234138759</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.507785786471</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4410,13 +4410,13 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.0918561847487</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C4" t="n">
-        <v>539.0918561847487</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>539.0918561847487</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>391.1787626023556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>244.2888151044453</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>76.30235041272385</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827661</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>539.0918561847487</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.0918561847487</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1449.50507480484</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="C5" t="n">
-        <v>1449.50507480484</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="D5" t="n">
-        <v>1449.50507480484</v>
+        <v>1086.424866249819</v>
       </c>
       <c r="E5" t="n">
-        <v>1063.716822206595</v>
+        <v>700.6366136515746</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>693.6911129023712</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>277.98636262666</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.104914868961</v>
+        <v>1831.290404920691</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>633.7673475025059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>633.7673475025059</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>483.6507080901702</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>483.6507080901702</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>336.7607605922598</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>168.7742959005384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4753,22 +4753,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544053</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>854.559926646036</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.7673475025059</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,46 +4808,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2559.248596410448</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2305.667535674628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1974.604648331057</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1621.835993060943</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1248.370234799863</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,40 +4869,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>613.9915673260028</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3403048849417</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>795.4041219570348</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>645.2874825446991</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>497.3743889623059</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>350.4844414643956</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>182.4979767726741</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1117.842204248373</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>828.7238667522107</v>
       </c>
       <c r="V10" t="n">
-        <v>1185.132884028472</v>
+        <v>574.0393785463239</v>
       </c>
       <c r="W10" t="n">
-        <v>1185.132884028472</v>
+        <v>574.0393785463239</v>
       </c>
       <c r="X10" t="n">
-        <v>1185.132884028472</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.3403048849417</v>
+        <v>346.0498276483066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>704.9454985441409</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D13" t="n">
-        <v>554.8288591318052</v>
+        <v>175.0061676818297</v>
       </c>
       <c r="E13" t="n">
-        <v>406.9157655494121</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1736.450588178207</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.033418141246</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1219.043867243229</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.2512880996986</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>383.4415877881713</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>817.189422194221</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>667.0727827818853</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>519.1596891994922</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>372.2697417015818</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>205.0736424164617</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2342.684238942884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>763.7541388327652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>613.6374994204294</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>613.6374994204294</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.94186588374748</v>
       </c>
       <c r="L3" t="n">
-        <v>84.94186588374697</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.18099370047435</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.011347179818479e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.51107787968385</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.1197517384202</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.65606465793439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.7050435830948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.70606962056301</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537748</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019583142</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856421</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529544</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>30.15030327142026</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>80.44045370237463</v>
+        <v>63.36835372228886</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.66255928343557</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>144.165476520763</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>17.88310747125651</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>80.98465480592276</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>953138.6937072435</v>
+        <v>953138.6937072445</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1010669.042127687</v>
+        <v>1010669.042127686</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503245</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450033</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="H2" t="n">
-        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26347,13 +26347,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.038636176</v>
+        <v>495753.0386361754</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504134</v>
+        <v>11452.26311504165</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317441</v>
+        <v>129476.5444317439</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704841</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94312.63493349016</v>
+        <v>94312.63493349054</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,7 +26424,7 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506621</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26436,25 +26436,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731989</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731975</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732034</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-926526.5696989306</v>
+        <v>-926701.7960173392</v>
       </c>
       <c r="C6" t="n">
         <v>183265.1122304334</v>
       </c>
       <c r="D6" t="n">
-        <v>183265.1122304331</v>
+        <v>183265.112230433</v>
       </c>
       <c r="E6" t="n">
-        <v>-202666.0611365057</v>
+        <v>-202711.9661320707</v>
       </c>
       <c r="F6" t="n">
-        <v>282881.1944793228</v>
+        <v>282846.4565538866</v>
       </c>
       <c r="G6" t="n">
-        <v>294333.4575943641</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="H6" t="n">
-        <v>294333.4575943639</v>
+        <v>294298.7196689283</v>
       </c>
       <c r="I6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689283</v>
       </c>
       <c r="J6" t="n">
-        <v>126728.2797843813</v>
+        <v>126693.5418589458</v>
       </c>
       <c r="K6" t="n">
-        <v>294333.4575943641</v>
+        <v>294298.7196689281</v>
       </c>
       <c r="L6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="M6" t="n">
-        <v>164856.9131626199</v>
+        <v>164822.1752371844</v>
       </c>
       <c r="N6" t="n">
-        <v>291256.4402386592</v>
+        <v>291221.7023132235</v>
       </c>
       <c r="O6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="P6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689284</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988464</v>
+        <v>423.9761565988459</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.5604582259672</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.5604582259672</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.5604582259672</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,14 +27385,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>200.8106183338416</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.5328950729588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>158.3406588394363</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>122.4465009488553</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>117.0969657948647</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.54637226433505</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>30.89927491591897</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>144.497829987955</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.5983603104226</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>24.77656134989127</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>17.31283085250453</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>3.550852110659633</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.411648116956221e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492848</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523453</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>271.5293621272323</v>
       </c>
       <c r="L3" t="n">
-        <v>382.6222265215972</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>318.8613543383246</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726647</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790087</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
